--- a/KLR/KLR 23 Winter FIAE B.xlsx
+++ b/KLR/KLR 23 Winter FIAE B.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Bilanzauswertung" sheetId="1" r:id="rId1"/>
+    <sheet name="Abschreibung" sheetId="2" r:id="rId2"/>
+    <sheet name="Kostenartenrechnung" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Aktiva</t>
   </si>
@@ -85,6 +87,54 @@
   </si>
   <si>
     <t>Unterschrift</t>
+  </si>
+  <si>
+    <t>Beispiel:</t>
+  </si>
+  <si>
+    <t>Autokauf</t>
+  </si>
+  <si>
+    <t>Preis:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anschaffungskosten: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutzungsdauer: </t>
+  </si>
+  <si>
+    <t>6 Jahre</t>
+  </si>
+  <si>
+    <t>AfA-Betrag</t>
+  </si>
+  <si>
+    <t>Restbuchwert</t>
+  </si>
+  <si>
+    <t>1. Jahr</t>
+  </si>
+  <si>
+    <t>2. Jahr</t>
+  </si>
+  <si>
+    <t>3. Jahr</t>
+  </si>
+  <si>
+    <t>4. Jahr</t>
+  </si>
+  <si>
+    <t>5. Jahr</t>
+  </si>
+  <si>
+    <t>6. Jahr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t>Alternativ:</t>
   </si>
 </sst>
 </file>
@@ -3153,6 +3203,1776 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Textfeld 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="312420" y="236220"/>
+          <a:ext cx="4960620" cy="4632960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Abschreibung für  Abnutzung (AfA):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Anschaffungskosten (ohne UST, mit Kaufnebenkosten)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-Nutzungsdauer </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-Abschreibungsart: lineare Abschreibung</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Beispiel "Autokauf": Kaufpreis: 38.080 EUR brutto</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Anschaffungskosten: 32.000 EUR</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Nutzungsdauer: 8 Jahre</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Formel: Anschaffungskosten/Nutzungsdauer = jährlicher Abschreibungsbetrag</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Jährliche Abschreibungsrate: 32.000/8 = 4.000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. Jahr: 32.000-4.000 = 28.000 EUR Restbuchwert</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>letztes Jahr: 4.000 - 4.000 = 0 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Textfeld 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="701040" y="434340"/>
+          <a:ext cx="5448300" cy="3406140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="sng" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kostenartenrechnung </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--&gt; Welche Kosten sind entstanden?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Unterschieden werden (Kostenermittlung): </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Grundkosten</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (identisch mit den Aufwendungen aus der GuV)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Anderskosten</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (Aufwendungen aus der GuV werden in anderer Höhe in   die KLR übernommen)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Zusatzkosten</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (ohne Aufwand in der GuV)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>neutrale Aufwendungen </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(periodenfremde Aufwendungen, betriebsfremde Aufwendungen, außerordentliche Aufwendungen)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Textfeld 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6385560" y="441960"/>
+          <a:ext cx="4335780" cy="3406140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="sng" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Beispiele:</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Anderskosten:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Abschreibung für Abnutzung =&gt; kalkulatorische Abschreibung</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Zinsaufwand =&gt; kalkulatorische Zinsen auf das betriebsnotwendige Kapital</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Verluste aus Schadensfällen =&gt; kalkulatorische Wagniskosten (Durchschnittswerte)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Textfeld 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6393180" y="4122420"/>
+          <a:ext cx="4396740" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="sng" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Beispiele:</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Zusatzkosten (fiktiv): </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- kalkulatorische Löhne und Gehälter</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- kalkulatorische Miete </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Textfeld 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="579120" y="4206240"/>
+          <a:ext cx="5341620" cy="2209800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="sng" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Beispiele:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Neutrale Aufwendungen:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- periodenfremde Aufwendungen = z.B. Steuernachzahlungen für vergangene Jahre</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- außerordentliche Aufwendungen = z.B. größere Schadensfälle</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- betriebsfremde Aufwendungen = z.B.  Verluste aus Wertpapierverkäufen</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -3418,7 +5238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
@@ -3746,4 +5566,158 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="I3:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="9:13">
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="24">
+        <v>28560</v>
+      </c>
+    </row>
+    <row r="4" spans="9:13">
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="24">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="5" spans="9:13">
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="9:13">
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="9:13">
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="24">
+        <v>4000</v>
+      </c>
+      <c r="L9" s="24">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="10" spans="9:13">
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="24">
+        <v>4000</v>
+      </c>
+      <c r="L10" s="24">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="11" spans="9:13">
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="24">
+        <v>4000</v>
+      </c>
+      <c r="L11" s="24">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="12" spans="9:13">
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="24">
+        <v>4000</v>
+      </c>
+      <c r="L12" s="24">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="13" spans="9:13">
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="24">
+        <v>4000</v>
+      </c>
+      <c r="L13" s="24">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="14" spans="9:13">
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="24">
+        <v>4000</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="9:13">
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="24">
+        <v>3999</v>
+      </c>
+      <c r="M16" s="24">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/KLR/KLR 23 Winter FIAE B.xlsx
+++ b/KLR/KLR 23 Winter FIAE B.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Aktiva</t>
   </si>
@@ -136,6 +136,12 @@
   <si>
     <t>Alternativ:</t>
   </si>
+  <si>
+    <t>Seite 448</t>
+  </si>
+  <si>
+    <t>Nr. 4</t>
+  </si>
 </sst>
 </file>
 
@@ -145,7 +151,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +230,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -275,7 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -343,6 +356,7 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4962,6 +4976,342 @@
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Textfeld 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="6736080"/>
+          <a:ext cx="5486400" cy="2689860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="sng" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Leistungsermittlung </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- neutrale Erträge: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>periodenfremde Erträge, betriebsfremde Erträge, Zinserträge, Mieterträge, außerordentliche Erträge</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Leistungen:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Umsatzerlöse </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Aktivierte Eigenleistungen </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Bestandsveränderung</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Entnahme von Gegenständen und Leistungen</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr lang="de-DE" sz="1100"/>
@@ -5238,8 +5588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -5708,14 +6058,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="J38:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="38" spans="10:11">
+      <c r="J38" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="K38" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11">
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/KLR/KLR 23 Winter FIAE B.xlsx
+++ b/KLR/KLR 23 Winter FIAE B.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Bilanzauswertung" sheetId="1" r:id="rId1"/>
     <sheet name="Abschreibung" sheetId="2" r:id="rId2"/>
-    <sheet name="Kostenartenrechnung" sheetId="3" r:id="rId3"/>
+    <sheet name="Kostenartenrechnung 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Kostenartenrechnung 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>Aktiva</t>
   </si>
@@ -142,6 +143,84 @@
   <si>
     <t>Nr. 4</t>
   </si>
+  <si>
+    <t>Soll</t>
+  </si>
+  <si>
+    <t>Gewinn und Verlust Rechnung</t>
+  </si>
+  <si>
+    <t>Haben</t>
+  </si>
+  <si>
+    <t>Materialaufwand</t>
+  </si>
+  <si>
+    <t>Umsatzerlöse</t>
+  </si>
+  <si>
+    <t>Löhne und Gehälter</t>
+  </si>
+  <si>
+    <t>Bestandsveränderungen</t>
+  </si>
+  <si>
+    <t>Abschreibungen</t>
+  </si>
+  <si>
+    <t>Aktivierte Eigenleistungen</t>
+  </si>
+  <si>
+    <t>Büromaterial</t>
+  </si>
+  <si>
+    <t>Mieterträge</t>
+  </si>
+  <si>
+    <t>Aufw. für Werbung</t>
+  </si>
+  <si>
+    <t>Zinserträge</t>
+  </si>
+  <si>
+    <t>Versicherungen</t>
+  </si>
+  <si>
+    <t>Zinsaufwendungen</t>
+  </si>
+  <si>
+    <t>Aufw. für Energie</t>
+  </si>
+  <si>
+    <t>Gewinn</t>
+  </si>
+  <si>
+    <t>Gemeinkosten</t>
+  </si>
+  <si>
+    <t>unproduktive Löhne und Gehälter</t>
+  </si>
+  <si>
+    <t>produktive Löhne und Gehälter</t>
+  </si>
+  <si>
+    <t>Einzelkosten</t>
+  </si>
+  <si>
+    <t>Selbstkosten</t>
+  </si>
+  <si>
+    <t>EK: 440.000</t>
+  </si>
+  <si>
+    <t>GK: 331.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SK: 771.000</t>
+  </si>
+  <si>
+    <t>Seite 451 Nr. 2</t>
+  </si>
 </sst>
 </file>
 
@@ -238,15 +317,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -283,12 +386,157 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -350,13 +598,62 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -5315,6 +5612,1683 @@
         </a:p>
         <a:p>
           <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Textfeld 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="281940"/>
+          <a:ext cx="5234940" cy="1607820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Einzelkosten --&gt; lassen sich </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="sng" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>direkt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> einem Auftrag zuordnen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Gemeinkosten --&gt; lassen sich nur </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="sng" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>indirekt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> einem Auftrag zuordnen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Textfeld 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="419100"/>
+          <a:ext cx="4137660" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Beispiel (vereinfacht):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Einzelkosten im Jahr 2021: 180.000 €</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Gemeinkosten im Jahr 2021: 390.000 €</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Gemeinkostenzuschlagssatz:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Gemeinkosten*100/Einzelkosten</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>390.000*100/180.000 = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>216,7 %</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Textfeld 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="525780" y="2209800"/>
+          <a:ext cx="5196840" cy="1783080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kundenauftrag:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Einzelkosten: 430 €</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Gemeinkosten: 430*216,7% = 931,81 €</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Gesamtkosten: 430 € + 931,81 € = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1.361,81 €</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Gerade Verbindung 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4922520" y="9525000"/>
+          <a:ext cx="830580" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1466850</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Gerade Verbindung 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6503670" y="7623810"/>
+          <a:ext cx="963930" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Gerade Verbindung 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5743576" y="7633335"/>
+          <a:ext cx="773429" cy="1901190"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Textfeld 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8321040" y="5334000"/>
+          <a:ext cx="5356860" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Hinweise:</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. Löhne und Gehälter teilen sich auf in "Fertigungslöhne" à 80.000 EUR und "unproduktive Löhne" à</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 40.000 EUR</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2. Zusätzliche kalkulatorische Löhne: 20.000 EUR zu je 50% unproduktiv und produktiv</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3. Kalkulatorische Zinsen zusätzlich zu den Zinsaufwendungen: 6.000 EUR</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Kalkulatorische Abschreibungen sind 5.000 EUR höher als die Abschreibungen</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>739140</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Textfeld 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4869180" y="10553700"/>
+          <a:ext cx="5029200" cy="1592580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Gemeinkostenzuschlagsatz für produktive Löhne? </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>331.000*100/90.000 = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>367,8%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Gemeinkostenzsuchlagssatz für Material?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>331.000*100/350.000 = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>94,6%</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Textfeld 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10469880" y="10584180"/>
+          <a:ext cx="4937760" cy="4328160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Aufgabe:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kalkulieren Sie die Gesamtkosten für einen Kundenauftrag!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Löhne: 10 Arbeitsstunden à 35 EUR</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>350*367,8/100 = 1.287,30</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Materialaufwand: 2.000 EUR</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2.000*94,6/100 = 1.892,00</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400"/>
+            <a:t>Gesamtkosten:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600"/>
+            <a:t>EK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" baseline="0"/>
+            <a:t> Löhne: 		350,00</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" baseline="0"/>
+            <a:t>GK Löhne:		1.287,30</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" baseline="0"/>
+            <a:t>EK Material:	2.000,00</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" baseline="0"/>
+            <a:t>GK Material:	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" u="sng" baseline="0"/>
+            <a:t>1.892,00</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" u="none"/>
+            <a:t>		5.529,30</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5607,14 +7581,14 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
       <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
@@ -5895,12 +7869,12 @@
         <v>20</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
     </row>
@@ -6060,27 +8034,450 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J38:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="38" spans="10:11">
-      <c r="J38" s="33" t="s">
+      <c r="J38" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="K38" s="33" t="s">
+      <c r="K38" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="39" spans="10:11">
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B27:P65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F44" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="27" spans="2:9" ht="31.2">
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="D29" s="3"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="2:9" ht="15.6">
+      <c r="B30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9">
+        <v>350000</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="G30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="9">
+        <v>490000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="6"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="2:9" ht="15.6">
+      <c r="B32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="9">
+        <v>120000</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="G32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="34">
+        <v>92400</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="B33" s="14"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="6"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="2:16" ht="15.6">
+      <c r="B34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="9">
+        <v>40000</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="G34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="34">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16">
+      <c r="B35" s="14"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="6"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="2:16" ht="15.6">
+      <c r="B36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="9">
+        <v>60000</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="G36" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="12"/>
+      <c r="I36" s="9">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="B37" s="14"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="18"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="2:16" ht="15.6">
+      <c r="B38" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="9">
+        <v>70000</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="G38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="14"/>
+      <c r="I38" s="35">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="15.6">
+      <c r="B39" s="14"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="6"/>
+      <c r="G39" s="23"/>
+      <c r="I39" s="24"/>
+    </row>
+    <row r="40" spans="2:16" ht="16.2" thickBot="1">
+      <c r="B40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="9">
+        <v>40000</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="22"/>
+    </row>
+    <row r="41" spans="2:16" ht="43.2">
+      <c r="B41" s="14"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="6"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="13"/>
+      <c r="K41" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="L41" s="37"/>
+      <c r="M41" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="N41" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="O41" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" ht="15.6">
+      <c r="B42" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="9">
+        <v>25000</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="13"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43">
+        <v>350000</v>
+      </c>
+      <c r="P42" s="52"/>
+    </row>
+    <row r="43" spans="2:16">
+      <c r="B43" s="14"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="6"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="13"/>
+      <c r="K43" s="41">
+        <v>50000</v>
+      </c>
+      <c r="L43" s="42"/>
+      <c r="M43" s="43">
+        <v>40000</v>
+      </c>
+      <c r="N43" s="43">
+        <v>80000</v>
+      </c>
+      <c r="O43" s="44">
+        <v>90000</v>
+      </c>
+      <c r="P43" s="45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" ht="16.2" thickBot="1">
+      <c r="B44" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="9">
+        <v>35000</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="13"/>
+      <c r="K44" s="46">
+        <v>45000</v>
+      </c>
+      <c r="L44" s="47"/>
+      <c r="M44" s="48">
+        <v>10000</v>
+      </c>
+      <c r="N44" s="48">
+        <v>10000</v>
+      </c>
+      <c r="O44" s="49"/>
+      <c r="P44" s="50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16">
+      <c r="B45" s="14"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="18"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="13"/>
+      <c r="K45" s="46">
+        <v>60000</v>
+      </c>
+      <c r="L45" s="47"/>
+      <c r="M45" s="51">
+        <v>50000</v>
+      </c>
+      <c r="N45" s="44">
+        <v>90000</v>
+      </c>
+      <c r="O45" s="43">
+        <v>440000</v>
+      </c>
+      <c r="P45" s="52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" ht="15.6">
+      <c r="B46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="9">
+        <v>43200</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="13"/>
+      <c r="K46" s="46">
+        <v>70000</v>
+      </c>
+      <c r="L46" s="47"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="52"/>
+    </row>
+    <row r="47" spans="2:16" ht="15.6">
+      <c r="C47" s="8"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="10"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="K47" s="46">
+        <v>40000</v>
+      </c>
+      <c r="L47" s="47"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="52"/>
+    </row>
+    <row r="48" spans="2:16" ht="15.6">
+      <c r="B48" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="25"/>
+      <c r="D48" s="26">
+        <f>SUM(D30,D32,D34,D36,D40,D42,D44,D46,D38)</f>
+        <v>783200</v>
+      </c>
+      <c r="E48" s="27"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="25"/>
+      <c r="I48" s="28">
+        <f>SUM(I30,I34,I36,I38,I32)</f>
+        <v>783200</v>
+      </c>
+      <c r="K48" s="46">
+        <v>31000</v>
+      </c>
+      <c r="L48" s="47"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="52"/>
+    </row>
+    <row r="49" spans="11:16" ht="15" thickBot="1">
+      <c r="K49" s="53">
+        <v>35000</v>
+      </c>
+      <c r="L49" s="54"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="52"/>
+    </row>
+    <row r="50" spans="11:16">
+      <c r="K50" s="46">
+        <f>SUM(K43:K49)</f>
+        <v>331000</v>
+      </c>
+      <c r="L50" s="47"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="52"/>
+    </row>
+    <row r="51" spans="11:16" ht="15" thickBot="1">
+      <c r="K51" s="55"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="58"/>
+    </row>
+    <row r="65" spans="7:7">
+      <c r="G65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/KLR/KLR 23 Winter FIAE B.xlsx
+++ b/KLR/KLR 23 Winter FIAE B.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Bilanzauswertung" sheetId="1" r:id="rId1"/>
     <sheet name="Abschreibung" sheetId="2" r:id="rId2"/>
     <sheet name="Kostenartenrechnung 1" sheetId="3" r:id="rId3"/>
     <sheet name="Kostenartenrechnung 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Kostenartenrechnung 3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="153">
   <si>
     <t>Aktiva</t>
   </si>
@@ -219,7 +220,268 @@
     <t xml:space="preserve"> SK: 771.000</t>
   </si>
   <si>
-    <t>Seite 451 Nr. 2</t>
+    <t>variabel</t>
+  </si>
+  <si>
+    <t>fix</t>
+  </si>
+  <si>
+    <t>Aufwendungen für Energie</t>
+  </si>
+  <si>
+    <t>25 % fix</t>
+  </si>
+  <si>
+    <t>40 % fix</t>
+  </si>
+  <si>
+    <t>Sozialabgaben</t>
+  </si>
+  <si>
+    <t>40% fix</t>
+  </si>
+  <si>
+    <t>kalkulatorische Abschreibungen</t>
+  </si>
+  <si>
+    <t>60% fix</t>
+  </si>
+  <si>
+    <t>Kommunikationskosten</t>
+  </si>
+  <si>
+    <t>10% fix</t>
+  </si>
+  <si>
+    <t>Aufwendungen für Werbung</t>
+  </si>
+  <si>
+    <t>50% fix</t>
+  </si>
+  <si>
+    <t>Mai 2022 (100.000 Stück):</t>
+  </si>
+  <si>
+    <t>Beispiel 1:</t>
+  </si>
+  <si>
+    <t>Produktion im Mai: 100.000 Stück</t>
+  </si>
+  <si>
+    <t>Gesamtkosten: 1.809.000 €</t>
+  </si>
+  <si>
+    <t>Kosten pro Stück: 18,09 €</t>
+  </si>
+  <si>
+    <t>Beispiel 2:</t>
+  </si>
+  <si>
+    <t>Produktion im Juni: 200.000 Stück</t>
+  </si>
+  <si>
+    <t>Gesamtkosten: 3.618.000 €</t>
+  </si>
+  <si>
+    <t>Fixe Kosten:</t>
+  </si>
+  <si>
+    <t>Variable Kosten:</t>
+  </si>
+  <si>
+    <t>pro Stück</t>
+  </si>
+  <si>
+    <t>aufgrund von</t>
+  </si>
+  <si>
+    <t>Seite 456</t>
+  </si>
+  <si>
+    <t>Fixkostendegression</t>
+  </si>
+  <si>
+    <t>Seite 458 Nr. 2</t>
+  </si>
+  <si>
+    <t>a)</t>
+  </si>
+  <si>
+    <t>12X = 20.000 +</t>
+  </si>
+  <si>
+    <t>8X</t>
+  </si>
+  <si>
+    <t>4X = 20.000</t>
+  </si>
+  <si>
+    <t>X = 5.000</t>
+  </si>
+  <si>
+    <t>12 € - 8€ = 4€</t>
+  </si>
+  <si>
+    <t>Deckungsbeitrag</t>
+  </si>
+  <si>
+    <t>20.000€/4€ =</t>
+  </si>
+  <si>
+    <t>5.000 Stück</t>
+  </si>
+  <si>
+    <t>6.000*12 =</t>
+  </si>
+  <si>
+    <t>Fixkosten</t>
+  </si>
+  <si>
+    <t>6.000*8 =</t>
+  </si>
+  <si>
+    <t>alternativ:</t>
+  </si>
+  <si>
+    <t>1.000 Stück</t>
+  </si>
+  <si>
+    <t>1.000*8 =</t>
+  </si>
+  <si>
+    <t>1.000*12 =</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = 4.000,00 €</t>
+  </si>
+  <si>
+    <t>1.000*Deckungsbeitrag 4€</t>
+  </si>
+  <si>
+    <t>Seite 460 Nr. 1</t>
+  </si>
+  <si>
+    <t>A  800 EUR - 480 EUR =</t>
+  </si>
+  <si>
+    <t>320 EUR DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.000 EUR DB </t>
+  </si>
+  <si>
+    <t>bei 200 Stück</t>
+  </si>
+  <si>
+    <t>B 1.200 EUR - 920 EUR =</t>
+  </si>
+  <si>
+    <t>280 EUR DB</t>
+  </si>
+  <si>
+    <t>42.000 EUR DB</t>
+  </si>
+  <si>
+    <t>bei 150 Stück</t>
+  </si>
+  <si>
+    <t>b)</t>
+  </si>
+  <si>
+    <t>A 320 EUR DB - 290 EUR =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 EUR </t>
+  </si>
+  <si>
+    <t>Gewinn pro Stück</t>
+  </si>
+  <si>
+    <t>B 280 EUR DB - 310 EUR =</t>
+  </si>
+  <si>
+    <t>30 EUR</t>
+  </si>
+  <si>
+    <t>Verlust pro Stück</t>
+  </si>
+  <si>
+    <t>Seite 461 Nr. 4</t>
+  </si>
+  <si>
+    <t>Drucker A</t>
+  </si>
+  <si>
+    <t>Drucker B</t>
+  </si>
+  <si>
+    <t>Drucker C</t>
+  </si>
+  <si>
+    <t>Drucker D</t>
+  </si>
+  <si>
+    <t>variable Kosten</t>
+  </si>
+  <si>
+    <t>fixe Kosten</t>
+  </si>
+  <si>
+    <t>Deckungsbeiträge</t>
+  </si>
+  <si>
+    <t>c)</t>
+  </si>
+  <si>
+    <t>Betriebsergebnis</t>
+  </si>
+  <si>
+    <t>Gesamtergebnis</t>
+  </si>
+  <si>
+    <t>Seite 461 Nr. 3</t>
+  </si>
+  <si>
+    <t>Warengruppe 1</t>
+  </si>
+  <si>
+    <t>Warengruppe 2</t>
+  </si>
+  <si>
+    <t>Warengruppe 3</t>
+  </si>
+  <si>
+    <t>Warengruppe 4</t>
+  </si>
+  <si>
+    <t>Variable Kosten</t>
+  </si>
+  <si>
+    <t>Deckungsbeitrag gesamt</t>
+  </si>
+  <si>
+    <t>Fixe Kosten</t>
+  </si>
+  <si>
+    <t>Umsatz identisch mit</t>
+  </si>
+  <si>
+    <t>variablen Kosten:</t>
+  </si>
+  <si>
+    <t>ist null!</t>
+  </si>
+  <si>
+    <t>Umsatz</t>
+  </si>
+  <si>
+    <t>Verkaufspreis pro Stück:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /380.000 Stück</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = 2,68 EUR</t>
   </si>
 </sst>
 </file>
@@ -349,7 +611,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -531,12 +793,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -599,51 +931,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -652,8 +978,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -7289,6 +7638,1492 @@
             <a:rPr lang="de-DE" sz="1600" u="none"/>
             <a:t>		5.529,30</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Textfeld 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3177540" y="12565380"/>
+          <a:ext cx="5280660" cy="3550920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800"/>
+            <a:t>Seite 455 Nr. 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800"/>
+            <a:t>a)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800"/>
+            <a:t>Gemeinkosten: 30.000 + 240.000 = 270.000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800"/>
+            <a:t>Einzelkosten:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800" baseline="0"/>
+            <a:t> 120.000 + 100.000 = 220.000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800" baseline="0"/>
+            <a:t>Selbstkosten: 490.000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800" baseline="0"/>
+            <a:t>b)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800"/>
+            <a:t>270.000*100/120.000 = 225%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800"/>
+            <a:t>c)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800"/>
+            <a:t>30.000*100/150.000 = 20%</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>81280</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>193040</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Textfeld 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6355080" y="523240"/>
+          <a:ext cx="2697480" cy="1544320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="sng" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Fixe Kosten </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>=&gt; Einzel- und Gemeinkosten, die sich bei Veränderung der Beschäftigung </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>nicht verändern  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="sng" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Variable Kosten </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>=&gt; Einzel- und Gemeinkosten, die sich je nach Beschäftigung </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>verringern oder vergrößern</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>726440</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>782320</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Textfeld 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="726440" y="5654040"/>
+          <a:ext cx="7472680" cy="2621280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Berechnung der Gewinnschwelle (Break-even-Point): </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Beispiel 2: Verkaufspreis (netto) 20 EUR</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Produzierte Menge: 100.000 Stück im Mai</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Variable Kosten Stück:   1.341.900,00 € /100.000 Stück = 13,42 €</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Preis pro Stück:			20 ,00 €</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="sng" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> - variable Kosten pro Stück	 13,42 € </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	 = Deckungsbeitrag	   6,58 €   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Fixe Kosten:   467.100,00 € /6,58 € (Deckungsbeitrag) = 70.987,8 Stück</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>574040</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Textfeld 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="574040" y="8509000"/>
+          <a:ext cx="7274560" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mengenbeispiele:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>50.000 Stück:    50.000 * 20 - 467.100 - (13,42 * 50.000) =      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- 138.100 EUR </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(Verlust);   Verlust pro Stück</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 	 -2.76  EUR</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>100.000 Stück: 100.000 * 20 - 467.100 - (13,42 * 100.000) =       190.900 EUR Gewinn;     Gewinn pro Stück: 	  1,91 EUR</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>180.000 Stück: 180.000 * 20 - 467.100 - (13,42 * 180.000) =        717.300 EUR Gewinn;    Gewinn pro Stück:	  3,99  EUR</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>200.000 Stück: 200.000 * 20 - 467.100 - (13,42 * 200.000) =         848.900EUR Gewinn;    Gewinn pro Stück: 	  4,24 EUR</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>680720</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>574040</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Textfeld 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="680720" y="9911080"/>
+          <a:ext cx="4302760" cy="1605280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Gewinnschwellenberechnung mit Hilfe einer Gleichung:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(Variable Kosten Stück:   1.341.900,00 € /100.000 Stück = 13,42 €)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20X = 467.100 + 13,42X</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6,58X = 467.100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>X = 70.987,8</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7581,14 +9416,14 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
       <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
@@ -7869,12 +9704,12 @@
         <v>20</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
     </row>
@@ -8061,10 +9896,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B27:P65"/>
+  <dimension ref="B27:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F44" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView topLeftCell="D68" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -8080,14 +9915,14 @@
       <c r="B27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
       <c r="I27" s="2" t="s">
         <v>42</v>
       </c>
@@ -8138,7 +9973,7 @@
         <v>46</v>
       </c>
       <c r="H32" s="12"/>
-      <c r="I32" s="34">
+      <c r="I32" s="32">
         <v>92400</v>
       </c>
     </row>
@@ -8164,7 +9999,7 @@
         <v>48</v>
       </c>
       <c r="H34" s="12"/>
-      <c r="I34" s="34">
+      <c r="I34" s="32">
         <v>150000</v>
       </c>
     </row>
@@ -8216,7 +10051,7 @@
         <v>52</v>
       </c>
       <c r="H38" s="14"/>
-      <c r="I38" s="35">
+      <c r="I38" s="33">
         <v>15800</v>
       </c>
     </row>
@@ -8248,20 +10083,20 @@
       <c r="G41" s="14"/>
       <c r="H41" s="12"/>
       <c r="I41" s="13"/>
-      <c r="K41" s="36" t="s">
+      <c r="K41" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="L41" s="37"/>
-      <c r="M41" s="38" t="s">
+      <c r="L41" s="68"/>
+      <c r="M41" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="N41" s="38" t="s">
+      <c r="N41" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="O41" s="39" t="s">
+      <c r="O41" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="P41" s="40" t="s">
+      <c r="P41" s="36" t="s">
         <v>61</v>
       </c>
     </row>
@@ -8277,14 +10112,14 @@
       <c r="G42" s="14"/>
       <c r="H42" s="12"/>
       <c r="I42" s="13"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43">
+      <c r="K42" s="69"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37">
         <v>350000</v>
       </c>
-      <c r="P42" s="52"/>
+      <c r="P42" s="44"/>
     </row>
     <row r="43" spans="2:16">
       <c r="B43" s="14"/>
@@ -8294,20 +10129,20 @@
       <c r="G43" s="14"/>
       <c r="H43" s="12"/>
       <c r="I43" s="13"/>
-      <c r="K43" s="41">
+      <c r="K43" s="71">
         <v>50000</v>
       </c>
-      <c r="L43" s="42"/>
-      <c r="M43" s="43">
+      <c r="L43" s="72"/>
+      <c r="M43" s="37">
         <v>40000</v>
       </c>
-      <c r="N43" s="43">
+      <c r="N43" s="37">
         <v>80000</v>
       </c>
-      <c r="O43" s="44">
+      <c r="O43" s="38">
         <v>90000</v>
       </c>
-      <c r="P43" s="45" t="s">
+      <c r="P43" s="39" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8323,18 +10158,18 @@
       <c r="G44" s="14"/>
       <c r="H44" s="12"/>
       <c r="I44" s="13"/>
-      <c r="K44" s="46">
+      <c r="K44" s="69">
         <v>45000</v>
       </c>
-      <c r="L44" s="47"/>
-      <c r="M44" s="48">
+      <c r="L44" s="70"/>
+      <c r="M44" s="40">
         <v>10000</v>
       </c>
-      <c r="N44" s="48">
+      <c r="N44" s="40">
         <v>10000</v>
       </c>
-      <c r="O44" s="49"/>
-      <c r="P44" s="50" t="s">
+      <c r="O44" s="41"/>
+      <c r="P44" s="42" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8346,20 +10181,20 @@
       <c r="G45" s="14"/>
       <c r="H45" s="12"/>
       <c r="I45" s="13"/>
-      <c r="K45" s="46">
+      <c r="K45" s="69">
         <v>60000</v>
       </c>
-      <c r="L45" s="47"/>
-      <c r="M45" s="51">
+      <c r="L45" s="70"/>
+      <c r="M45" s="43">
         <v>50000</v>
       </c>
-      <c r="N45" s="44">
+      <c r="N45" s="38">
         <v>90000</v>
       </c>
-      <c r="O45" s="43">
+      <c r="O45" s="37">
         <v>440000</v>
       </c>
-      <c r="P45" s="52" t="s">
+      <c r="P45" s="44" t="s">
         <v>64</v>
       </c>
     </row>
@@ -8375,14 +10210,14 @@
       <c r="G46" s="14"/>
       <c r="H46" s="12"/>
       <c r="I46" s="13"/>
-      <c r="K46" s="46">
+      <c r="K46" s="69">
         <v>70000</v>
       </c>
-      <c r="L46" s="47"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="52"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="44"/>
     </row>
     <row r="47" spans="2:16" ht="15.6">
       <c r="C47" s="8"/>
@@ -8391,14 +10226,14 @@
       <c r="G47" s="14"/>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
-      <c r="K47" s="46">
+      <c r="K47" s="69">
         <v>40000</v>
       </c>
-      <c r="L47" s="47"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="52"/>
+      <c r="L47" s="70"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="44"/>
     </row>
     <row r="48" spans="2:16" ht="15.6">
       <c r="B48" s="25" t="s">
@@ -8419,56 +10254,46 @@
         <f>SUM(I30,I34,I36,I38,I32)</f>
         <v>783200</v>
       </c>
-      <c r="K48" s="46">
+      <c r="K48" s="69">
         <v>31000</v>
       </c>
-      <c r="L48" s="47"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43"/>
-      <c r="P48" s="52"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="44"/>
     </row>
     <row r="49" spans="11:16" ht="15" thickBot="1">
-      <c r="K49" s="53">
+      <c r="K49" s="73">
         <v>35000</v>
       </c>
-      <c r="L49" s="54"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="52"/>
+      <c r="L49" s="74"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="44"/>
     </row>
     <row r="50" spans="11:16">
-      <c r="K50" s="46">
+      <c r="K50" s="69">
         <f>SUM(K43:K49)</f>
         <v>331000</v>
       </c>
-      <c r="L50" s="47"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="52"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="44"/>
     </row>
     <row r="51" spans="11:16" ht="15" thickBot="1">
-      <c r="K51" s="55"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="57"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="57"/>
-      <c r="P51" s="58"/>
-    </row>
-    <row r="65" spans="7:7">
-      <c r="G65" t="s">
-        <v>65</v>
-      </c>
+      <c r="K51" s="65"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K50:L50"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="K41:L41"/>
@@ -8476,8 +10301,787 @@
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G123" sqref="G123"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15" thickBot="1">
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="49">
+        <v>480000</v>
+      </c>
+      <c r="E5" s="24">
+        <v>480000</v>
+      </c>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="44">
+        <v>240000</v>
+      </c>
+      <c r="E6" s="24">
+        <v>180000</v>
+      </c>
+      <c r="F6" s="24">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="44">
+        <v>700000</v>
+      </c>
+      <c r="E7" s="24">
+        <v>420000</v>
+      </c>
+      <c r="F7" s="24">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="44">
+        <v>150000</v>
+      </c>
+      <c r="E8" s="24">
+        <v>90000</v>
+      </c>
+      <c r="F8" s="24">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="44">
+        <v>98000</v>
+      </c>
+      <c r="E9" s="24">
+        <v>58800</v>
+      </c>
+      <c r="F9" s="24">
+        <v>39200</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="44">
+        <v>10000</v>
+      </c>
+      <c r="E10" s="24">
+        <v>4000</v>
+      </c>
+      <c r="F10" s="24">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="44">
+        <v>14000</v>
+      </c>
+      <c r="E11" s="24">
+        <v>12600</v>
+      </c>
+      <c r="F11" s="24">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="44">
+        <v>95000</v>
+      </c>
+      <c r="E12" s="52">
+        <v>85500</v>
+      </c>
+      <c r="F12" s="24">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15" thickBot="1">
+      <c r="B13" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="53">
+        <v>22000</v>
+      </c>
+      <c r="E13" s="54">
+        <v>11000</v>
+      </c>
+      <c r="F13" s="55">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15" thickTop="1">
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="39">
+        <f>SUM(D5:D13)</f>
+        <v>1809000</v>
+      </c>
+      <c r="E14" s="24">
+        <f>SUM(E5:E13)</f>
+        <v>1341900</v>
+      </c>
+      <c r="F14" s="24">
+        <f>SUM(F6:F13)</f>
+        <v>467100</v>
+      </c>
+      <c r="G14" s="58"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="44"/>
+      <c r="F16" s="24"/>
+    </row>
+    <row r="17" spans="2:8" ht="15" thickBot="1">
+      <c r="B17" s="56"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="57"/>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="24">
+        <v>467100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="C25" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="F25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="60">
+        <v>2683800</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="G26" s="24">
+        <f>SUM(G24:G25)</f>
+        <v>3150900</v>
+      </c>
+      <c r="H26" s="59">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="F28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="6:7">
+      <c r="F57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="6:7">
+      <c r="F58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="6:7">
+      <c r="F59" t="s">
+        <v>94</v>
+      </c>
+      <c r="G59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="6:7">
+      <c r="F60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="6:7">
+      <c r="F61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="6:7">
+      <c r="F64" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="G64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="6:8">
+      <c r="F65" t="s">
+        <v>100</v>
+      </c>
+      <c r="G65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="6:8">
+      <c r="F67" t="s">
+        <v>102</v>
+      </c>
+      <c r="G67" s="24">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="68" spans="6:8">
+      <c r="F68" t="s">
+        <v>103</v>
+      </c>
+      <c r="G68" s="59">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="69" spans="6:8">
+      <c r="F69" t="s">
+        <v>104</v>
+      </c>
+      <c r="G69" s="62">
+        <v>-48000</v>
+      </c>
+    </row>
+    <row r="70" spans="6:8">
+      <c r="F70" t="s">
+        <v>56</v>
+      </c>
+      <c r="G70" s="24">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="72" spans="6:8">
+      <c r="F72" t="s">
+        <v>105</v>
+      </c>
+      <c r="G72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="6:8">
+      <c r="G74" t="s">
+        <v>108</v>
+      </c>
+      <c r="H74" s="24">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="75" spans="6:8">
+      <c r="G75" t="s">
+        <v>107</v>
+      </c>
+      <c r="H75" s="62">
+        <v>-8000</v>
+      </c>
+    </row>
+    <row r="76" spans="6:8">
+      <c r="G76" t="s">
+        <v>56</v>
+      </c>
+      <c r="H76" s="24">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="78" spans="6:8">
+      <c r="F78" t="s">
+        <v>105</v>
+      </c>
+      <c r="G78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="6:8">
+      <c r="G79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="B81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" t="s">
+        <v>114</v>
+      </c>
+      <c r="E83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="B84" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" t="s">
+        <v>117</v>
+      </c>
+      <c r="D84" t="s">
+        <v>118</v>
+      </c>
+      <c r="E84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" t="s">
+        <v>122</v>
+      </c>
+      <c r="D86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="B87" t="s">
+        <v>124</v>
+      </c>
+      <c r="C87" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D87" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="B90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="C93" t="s">
+        <v>128</v>
+      </c>
+      <c r="D93" t="s">
+        <v>129</v>
+      </c>
+      <c r="E93" t="s">
+        <v>130</v>
+      </c>
+      <c r="F93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94" s="24">
+        <v>64000</v>
+      </c>
+      <c r="D94" s="24">
+        <v>36000</v>
+      </c>
+      <c r="E94" s="24">
+        <v>27500</v>
+      </c>
+      <c r="F94" s="24">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="B95" t="s">
+        <v>133</v>
+      </c>
+      <c r="C95" s="24">
+        <v>4705.88</v>
+      </c>
+      <c r="D95" s="24">
+        <v>11764.71</v>
+      </c>
+      <c r="E95" s="24">
+        <v>2352.94</v>
+      </c>
+      <c r="F95" s="24">
+        <v>1176.47</v>
+      </c>
+      <c r="G95" s="58">
+        <f>SUM(C95:F95)</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98" t="s">
+        <v>134</v>
+      </c>
+      <c r="C98" s="24">
+        <v>16000</v>
+      </c>
+      <c r="D98" s="24">
+        <v>4000</v>
+      </c>
+      <c r="E98" s="59">
+        <v>-2500</v>
+      </c>
+      <c r="F98" s="24">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="C99" s="24">
+        <v>80</v>
+      </c>
+      <c r="D99" s="24">
+        <v>8</v>
+      </c>
+      <c r="E99" s="59">
+        <v>-25</v>
+      </c>
+      <c r="F99" s="24">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>135</v>
+      </c>
+      <c r="B101" t="s">
+        <v>136</v>
+      </c>
+      <c r="C101" s="24">
+        <v>11294.12</v>
+      </c>
+      <c r="D101" s="59">
+        <v>-7764.71</v>
+      </c>
+      <c r="E101" s="59">
+        <v>-4852.9399999999996</v>
+      </c>
+      <c r="F101" s="24">
+        <v>10823.53</v>
+      </c>
+      <c r="G101" s="58">
+        <f>SUM(C101:F101)</f>
+        <v>9500.0000000000018</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="G102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="B105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="C107" t="s">
+        <v>139</v>
+      </c>
+      <c r="D107" t="s">
+        <v>140</v>
+      </c>
+      <c r="E107" t="s">
+        <v>141</v>
+      </c>
+      <c r="F107" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="B109" t="s">
+        <v>44</v>
+      </c>
+      <c r="C109" s="24">
+        <v>950000</v>
+      </c>
+      <c r="D109" s="24">
+        <v>700000</v>
+      </c>
+      <c r="E109" s="24">
+        <v>410000</v>
+      </c>
+      <c r="F109" s="24">
+        <v>980000</v>
+      </c>
+      <c r="G109" s="24"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="B110" t="s">
+        <v>143</v>
+      </c>
+      <c r="C110" s="24">
+        <v>600000</v>
+      </c>
+      <c r="D110" s="24">
+        <v>550000</v>
+      </c>
+      <c r="E110" s="24">
+        <v>340000</v>
+      </c>
+      <c r="F110" s="24">
+        <v>1020000</v>
+      </c>
+      <c r="G110" s="24"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>93</v>
+      </c>
+      <c r="B111" t="s">
+        <v>99</v>
+      </c>
+      <c r="C111" s="24">
+        <v>350000</v>
+      </c>
+      <c r="D111" s="24">
+        <v>150000</v>
+      </c>
+      <c r="E111" s="24">
+        <v>70000</v>
+      </c>
+      <c r="F111" s="59">
+        <v>-40000</v>
+      </c>
+      <c r="G111" s="24">
+        <f>SUM(C111:F111)</f>
+        <v>530000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="B113" t="s">
+        <v>144</v>
+      </c>
+      <c r="C113" s="24">
+        <v>530000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="B114" t="s">
+        <v>145</v>
+      </c>
+      <c r="C114" s="24">
+        <v>370000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115" t="s">
+        <v>136</v>
+      </c>
+      <c r="C115" s="24">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>135</v>
+      </c>
+      <c r="B118" t="s">
+        <v>146</v>
+      </c>
+      <c r="C118" t="s">
+        <v>147</v>
+      </c>
+      <c r="D118" t="s">
+        <v>99</v>
+      </c>
+      <c r="E118" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="B120" t="s">
+        <v>149</v>
+      </c>
+      <c r="C120" s="24">
+        <v>1020000</v>
+      </c>
+      <c r="E120" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="F120" s="75"/>
+      <c r="G120" s="24">
+        <v>1020000</v>
+      </c>
+      <c r="H120" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="B121" t="s">
+        <v>143</v>
+      </c>
+      <c r="C121" s="60">
+        <v>1020000</v>
+      </c>
+      <c r="G121" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="B122" t="s">
+        <v>99</v>
+      </c>
+      <c r="C122" s="24">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E120:F120"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>